--- a/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6319</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1478</v>
+        <v>1506</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18396</v>
+        <v>19321</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01549594890711446</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003623587663078057</v>
+        <v>0.003692945839890554</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04511076864622195</v>
+        <v>0.04737872046552111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>11028</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3995</v>
+        <v>4574</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25043</v>
+        <v>24484</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03042226040811456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01102007949706434</v>
+        <v>0.01261844978735636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.069081257051016</v>
+        <v>0.0675396890981815</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>17348</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7544</v>
+        <v>8174</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33999</v>
+        <v>33311</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02252039558329611</v>
+        <v>0.0225203955832961</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009793072672836602</v>
+        <v>0.01061081738172632</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04413663417019684</v>
+        <v>0.04324387200869625</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>401474</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389397</v>
+        <v>388472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406315</v>
+        <v>406287</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9845040510928856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9548892313537773</v>
+        <v>0.9526212795344788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9963764123369218</v>
+        <v>0.9963070541601093</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>201</v>
@@ -833,19 +833,19 @@
         <v>351484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337469</v>
+        <v>338028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>358517</v>
+        <v>357938</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9695777395918853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9309187429489827</v>
+        <v>0.932460310901818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9889799205029356</v>
+        <v>0.9873815502126437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>370</v>
@@ -854,19 +854,19 @@
         <v>752957</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736306</v>
+        <v>736994</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762761</v>
+        <v>762131</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9774796044167041</v>
+        <v>0.9774796044167039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9558633658298032</v>
+        <v>0.9567561279913033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9902069273271633</v>
+        <v>0.9893891826182735</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>8034</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2790</v>
+        <v>2342</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21683</v>
+        <v>22731</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01684592188353219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005849706909639285</v>
+        <v>0.004911135400619595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04546824449015739</v>
+        <v>0.04766551706564737</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -979,19 +979,19 @@
         <v>10309</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4907</v>
+        <v>5143</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18544</v>
+        <v>19487</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02057413898969921</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009791859167452007</v>
+        <v>0.0102646737064327</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03700787394179174</v>
+        <v>0.03889049752417545</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -1000,19 +1000,19 @@
         <v>18343</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9658</v>
+        <v>9963</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31083</v>
+        <v>32374</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01875614422039246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009875209946269193</v>
+        <v>0.01018693580679127</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03178359448522181</v>
+        <v>0.03310351336104177</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>468856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455207</v>
+        <v>454159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474100</v>
+        <v>474548</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9831540781164678</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9545317555098433</v>
+        <v>0.9523344829343524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9941502930903607</v>
+        <v>0.9950888645993804</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>451</v>
@@ -1050,19 +1050,19 @@
         <v>490774</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482539</v>
+        <v>481596</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496176</v>
+        <v>495940</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9794258610103007</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9629921260582081</v>
+        <v>0.9611095024758244</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9902081408325479</v>
+        <v>0.9897353262935672</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>749</v>
@@ -1071,19 +1071,19 @@
         <v>959630</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>946890</v>
+        <v>945599</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968315</v>
+        <v>968010</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9812438557796075</v>
+        <v>0.9812438557796074</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9682164055147784</v>
+        <v>0.9668964866389584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9901247900537309</v>
+        <v>0.9898130641932089</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>11515</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6312</v>
+        <v>5638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20353</v>
+        <v>20069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01854680762339635</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01016644974042162</v>
+        <v>0.009080780028083294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03278337670704501</v>
+        <v>0.03232509404651726</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1196,19 +1196,19 @@
         <v>16935</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10020</v>
+        <v>11381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23943</v>
+        <v>24846</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02722080652395252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0161056229333173</v>
+        <v>0.01829256645329628</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03848517539836176</v>
+        <v>0.03993591547905</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1217,19 +1217,19 @@
         <v>28450</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20144</v>
+        <v>19756</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40455</v>
+        <v>39942</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02288835151492916</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01620646565786396</v>
+        <v>0.01589382690378816</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03254709387500489</v>
+        <v>0.03213419026342296</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>609322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>600484</v>
+        <v>600768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614525</v>
+        <v>615199</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9814531923766038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9672166232929552</v>
+        <v>0.9676749059534824</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9898335502595784</v>
+        <v>0.9909192199719166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>823</v>
@@ -1267,19 +1267,19 @@
         <v>605204</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>598196</v>
+        <v>597293</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>612119</v>
+        <v>610758</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9727791934760476</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.961514824601638</v>
+        <v>0.9600640845209496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9838943770666827</v>
+        <v>0.9817074335467034</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1359</v>
@@ -1288,19 +1288,19 @@
         <v>1214526</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1202521</v>
+        <v>1203034</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1222832</v>
+        <v>1223220</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9771116484850708</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9674529061249952</v>
+        <v>0.9678658097365771</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9837935343421361</v>
+        <v>0.9841061730962118</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>11058</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5535</v>
+        <v>5760</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19340</v>
+        <v>18894</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01578373444637473</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007899768290818418</v>
+        <v>0.008221053937867167</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02760485681305691</v>
+        <v>0.0269681907287869</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1413,19 +1413,19 @@
         <v>40037</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30984</v>
+        <v>30986</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49551</v>
+        <v>51457</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05433259389042483</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04204695019166154</v>
+        <v>0.04205007289618058</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06724430212863017</v>
+        <v>0.06983085547504948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -1434,19 +1434,19 @@
         <v>51095</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40821</v>
+        <v>39593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64939</v>
+        <v>64280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03554447145941796</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0283973371272303</v>
+        <v>0.0275429009052155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04517481481473238</v>
+        <v>0.04471644026384056</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>689559</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>681277</v>
+        <v>681723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>695082</v>
+        <v>694857</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9842162655536253</v>
+        <v>0.9842162655536252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9723951431869429</v>
+        <v>0.973031809271213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9921002317091815</v>
+        <v>0.9917789460621325</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1080</v>
@@ -1484,19 +1484,19 @@
         <v>696849</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>687335</v>
+        <v>685429</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>705902</v>
+        <v>705900</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9456674061095752</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9327556978713699</v>
+        <v>0.9301691445249507</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9579530498083384</v>
+        <v>0.9579499271038195</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1734</v>
@@ -1505,19 +1505,19 @@
         <v>1386409</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1372565</v>
+        <v>1373224</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1396683</v>
+        <v>1397911</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9644555285405819</v>
+        <v>0.9644555285405821</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9548251851852675</v>
+        <v>0.9552835597361594</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9716026628727699</v>
+        <v>0.9724570990947844</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>9904</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5163</v>
+        <v>4980</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18558</v>
+        <v>18116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01625293058896993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008473068724633518</v>
+        <v>0.00817319028755125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03045539681434851</v>
+        <v>0.02973031537594785</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -1630,19 +1630,19 @@
         <v>37759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28772</v>
+        <v>29084</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47202</v>
+        <v>47242</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06208563670349779</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04730893600915215</v>
+        <v>0.04782239425731301</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07761225657115647</v>
+        <v>0.077678876272039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -1651,19 +1651,19 @@
         <v>47662</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37267</v>
+        <v>37815</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60134</v>
+        <v>61595</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03914715024041787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03060861082635736</v>
+        <v>0.03105941277679346</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04939080665890936</v>
+        <v>0.05059035128654177</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>599442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>590788</v>
+        <v>591230</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>604183</v>
+        <v>604366</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9837470694110301</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9695446031856515</v>
+        <v>0.9702696846240519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9915269312753665</v>
+        <v>0.9918268097124489</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>939</v>
@@ -1701,19 +1701,19 @@
         <v>570412</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>560969</v>
+        <v>560929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>579399</v>
+        <v>579087</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9379143632965024</v>
+        <v>0.9379143632965021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9223877434288436</v>
+        <v>0.9223211237279612</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9526910639908479</v>
+        <v>0.9521776057426872</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1592</v>
@@ -1722,19 +1722,19 @@
         <v>1169855</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1157383</v>
+        <v>1155922</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1180250</v>
+        <v>1179702</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9608528497595821</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9506091933410905</v>
+        <v>0.9494096487134576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9693913891736425</v>
+        <v>0.9689405872232064</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>21161</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15249</v>
+        <v>14678</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29867</v>
+        <v>30247</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05198347464757802</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0374599841423048</v>
+        <v>0.03605641830593492</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07336960752279603</v>
+        <v>0.07430198037565656</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -1847,19 +1847,19 @@
         <v>32865</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25557</v>
+        <v>25478</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41680</v>
+        <v>41972</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07483495704637057</v>
+        <v>0.07483495704637055</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05819408415027784</v>
+        <v>0.05801374180087136</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09490824491648824</v>
+        <v>0.09557162635111677</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -1868,19 +1868,19 @@
         <v>54026</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44165</v>
+        <v>44292</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65747</v>
+        <v>65122</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06384243692547743</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05218951634075308</v>
+        <v>0.05233937387354669</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07769202655023814</v>
+        <v>0.07695384187077335</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>385919</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>377213</v>
+        <v>376833</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>391831</v>
+        <v>392402</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9480165253524219</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9266303924772041</v>
+        <v>0.9256980196243435</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9625400158576957</v>
+        <v>0.963943581694065</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>767</v>
@@ -1918,19 +1918,19 @@
         <v>406301</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>397486</v>
+        <v>397194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>413609</v>
+        <v>413688</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9251650429536294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9050917550835117</v>
+        <v>0.9044283736488832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9418059158497223</v>
+        <v>0.9419862581991286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1305</v>
@@ -1939,19 +1939,19 @@
         <v>792220</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>780499</v>
+        <v>781124</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>802081</v>
+        <v>801954</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9361575630745224</v>
+        <v>0.9361575630745226</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9223079734497619</v>
+        <v>0.9230461581292257</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9478104836592469</v>
+        <v>0.9476606261264531</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>13951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8856</v>
+        <v>8574</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20373</v>
+        <v>20660</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04497477093945298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02854853574917028</v>
+        <v>0.02764114198410481</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06567647324321782</v>
+        <v>0.06660165744278491</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>82</v>
@@ -2064,19 +2064,19 @@
         <v>45204</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35815</v>
+        <v>36538</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55973</v>
+        <v>55329</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09741949228983175</v>
+        <v>0.09741949228983174</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07718610082298812</v>
+        <v>0.07874355803656564</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1206278408966545</v>
+        <v>0.1192410455587896</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -2085,19 +2085,19 @@
         <v>59155</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48786</v>
+        <v>47696</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71283</v>
+        <v>72153</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07640679430704252</v>
+        <v>0.0764067943070425</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06301440554575424</v>
+        <v>0.06160591297865183</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09207193986277672</v>
+        <v>0.09319559015708688</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>296247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>289825</v>
+        <v>289538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>301342</v>
+        <v>301624</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9550252290605469</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9343235267567822</v>
+        <v>0.9333983425572155</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9714514642508301</v>
+        <v>0.9723588580158955</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>798</v>
@@ -2135,19 +2135,19 @@
         <v>418809</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>408040</v>
+        <v>408684</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>428198</v>
+        <v>427475</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9025805077101682</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8793721591033454</v>
+        <v>0.8807589544412102</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9228138991770118</v>
+        <v>0.9212564419634344</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1234</v>
@@ -2156,19 +2156,19 @@
         <v>715056</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>702928</v>
+        <v>702058</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>725425</v>
+        <v>726515</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9235932056929577</v>
+        <v>0.9235932056929574</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9079280601372232</v>
+        <v>0.9068044098429131</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9369855944542457</v>
+        <v>0.9383940870213481</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>81942</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65600</v>
+        <v>66926</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103474</v>
+        <v>105838</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02319484778518329</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01856903795215043</v>
+        <v>0.01894426424268466</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0292897038849582</v>
+        <v>0.02995898268058116</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>303</v>
@@ -2281,19 +2281,19 @@
         <v>194137</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>172407</v>
+        <v>173227</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>219010</v>
+        <v>220013</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05199221847083567</v>
+        <v>0.05199221847083566</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04617249604362527</v>
+        <v>0.04639207794337183</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05865328878514073</v>
+        <v>0.05892189605748137</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>395</v>
@@ -2302,19 +2302,19 @@
         <v>276079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>247267</v>
+        <v>250251</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>305945</v>
+        <v>308184</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03799221799210868</v>
+        <v>0.03799221799210869</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03402720425646199</v>
+        <v>0.03443789969783623</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0421021874034213</v>
+        <v>0.04241020317734015</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3450820</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3429288</v>
+        <v>3426924</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3467162</v>
+        <v>3465836</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9768051522148169</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.970710296115042</v>
+        <v>0.9700410173194188</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9814309620478499</v>
+        <v>0.9810557357573153</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5059</v>
@@ -2352,19 +2352,19 @@
         <v>3539833</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3514960</v>
+        <v>3513957</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3561563</v>
+        <v>3560743</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9480077815291643</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9413467112148594</v>
+        <v>0.9410781039425188</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9538275039563745</v>
+        <v>0.9536079220566283</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8343</v>
@@ -2373,19 +2373,19 @@
         <v>6990653</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6960787</v>
+        <v>6958548</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7019465</v>
+        <v>7016481</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9620077820078914</v>
+        <v>0.9620077820078915</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9578978125965794</v>
+        <v>0.9575897968226601</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9659727957435389</v>
+        <v>0.9655621003021638</v>
       </c>
     </row>
     <row r="27">
